--- a/list.xlsx
+++ b/list.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Mobile number</t>
   </si>
@@ -62,6 +63,30 @@
   </si>
   <si>
     <t>Swapnil Dongare</t>
+  </si>
+  <si>
+    <t>+919167820858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onkar </t>
+  </si>
+  <si>
+    <t>+919886123699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hassan </t>
+  </si>
+  <si>
+    <t>+919869685083</t>
+  </si>
+  <si>
+    <t>Tejhas</t>
+  </si>
+  <si>
+    <t>+919833584282</t>
+  </si>
+  <si>
+    <t>Janvi</t>
   </si>
 </sst>
 </file>
@@ -404,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -440,10 +465,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -451,10 +476,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -462,23 +487,85 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
